--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/38_Iğdır_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/38_Iğdır_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E599BBC4-728D-436E-968A-8D84C80BA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{197A0758-D800-470A-AF35-4EC47203FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092F958C-1515-469E-A120-053ED8F994FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41FFC7F3-2FC1-4B97-96B6-7E06325107B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BCE11FBF-215C-4E11-BB9A-29CEBB34D5FD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{91F31B43-FF6B-4433-A856-B93BDB717D0D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{CE92D2B1-15E0-4012-81D9-6AA6D7630048}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{2C6B72E9-2BA8-4836-8764-28A0E56B3475}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{803629CD-67EF-4C1D-AC26-CF26339E76C8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{1FC76661-BB8C-44AD-AB99-5E8EF60FF3AC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{3E38F6A0-ACB2-4680-BFD5-D90DCC976605}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1F262508-67D8-426F-A36B-31174CE08255}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9465B3BD-264B-4013-B08E-D8520F75F5A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6117445-6112-4665-8DC7-F17BE194D2DA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2429,18 +2429,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA3906F4-4AC8-4D94-BEF2-183641CDC6E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F56D89E1-7748-409B-AD0A-340D73FDE1E2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{817EE0AF-96A9-46CC-B124-7055D9AB21B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2687022F-A2CA-4DF9-ABEF-1408A670BB7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2F4126B5-3BB0-425A-9DA4-76F4629E59AB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F9FD5A12-3E61-4DF2-95FA-E6282A437C96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DB2D4058-6601-493C-A689-3748DF7C1619}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{48438CD4-0076-4AB1-8486-781F4BC0F2C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E00D1D35-6014-4015-B220-E3EBA26C5F64}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{416CA085-633B-4FB8-A8FB-4B7DCA132A78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8B45F667-83BD-4FD3-BBC8-8C40A586F8AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{048D1BD3-7239-4EB8-BED3-3724C8CDF2A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CEC4CD8F-51ED-4C26-9386-AB83A3D15B78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{14D3374F-FC31-45C5-8255-B55F4C211E3E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B70FCBE-574D-436E-861A-6D1E9EC65DFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B7206945-5CA5-477E-9EFF-146F766B9738}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3056396-3AEE-4533-9F99-F01B76E2C1C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C3E03B6D-781A-453D-9D9B-B6928C239F99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B6587252-09D4-4A50-81FA-67C7D84BCD5F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{61BE9527-89F4-4660-A4F4-58430E486576}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB2CB3B2-E0DE-49C5-B7EC-E98F87D168DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2BA3AED8-49CB-4E81-BCA4-69FAD2586B57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{73C395E7-0D4A-485A-BF7E-2AC827D12962}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70BECE3E-1DB1-4379-BE91-61E6262B8C7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2453,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D932B0C-6C05-4957-9260-5BD5E4748718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C56D50-6994-49B3-9C6F-727D72FFF0CC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3618,18 +3618,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34A4AC4C-F4C4-427A-A987-0548882B05B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DB5FEA59-686C-473B-9210-3CBDDF358862}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DCFD950F-C76B-43B4-9A5C-3B974BDD18F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7403CE44-D6AF-446C-AEEF-B91B80AF6E3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D05D510-4504-4E27-B474-60C6CBC88D1F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2FA3363A-D2CD-4F1E-B9D3-AD99051848AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{06171AF8-BE25-4A99-A491-70AA028B83E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1FED8C75-1E67-4522-A22F-497D586137AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AD2223CA-6CD3-4450-B0A6-F36E40D5CABD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{972D822D-A9C4-450E-AC30-0845EC689A2F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0686C951-8667-41DB-A036-4E7A891E3648}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{19C2244F-8209-4ECD-B80D-D68DC661A548}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{042CB810-C56A-4466-A494-0E3A1E9F5C97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49A77921-3168-4339-8E3B-7820D3E52812}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{95FA1224-C478-4C6A-B48F-0916F2DCFFE3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{688D888D-1307-4998-8208-FBA27868BE93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E53B577-59B0-4044-BBDC-E03D1EDF7909}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6E82A0D-C519-48A2-9AFA-D3B1D11AAC6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E821285C-11D7-46BF-B030-EF6238A71C55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA8BF21C-DD31-4947-8606-E1CF6E38DBB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5FF7A7F6-6A51-4EAB-8250-9895339F074A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0573885C-F077-4E1F-9ACB-615A8EEE43BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93946EAD-3E52-4988-8B8F-DF81FA24D66C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{090D0692-8CA8-459D-8EE5-4DF85C289168}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3642,7 +3642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8B03C-2932-4075-8717-8FF8B1B70C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E272F96-75D9-465C-800C-E9B3D1F727A0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4805,18 +4805,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{20870A50-F0F7-4AA6-9FB2-1832BD18CEF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{98DA03C2-9349-4155-8FCF-452A9C16BAFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E2800EDF-4A8D-4C36-B129-A226F285F92C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4D7334E5-7A6B-4FE0-82C7-6A41667A9333}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{380A7B97-A64D-484D-8841-1375338675CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A2EDCA01-095E-4BA7-BC85-F9CAA30DA60C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{716BB22A-BE90-427F-B92F-67764A8BC0D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AFB2DA4C-9060-4BCB-9EED-E1B801923994}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32D9555A-7FCC-40CD-8DB6-B0407FDD152D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{24626236-7695-4DAF-9D9B-27D738153E3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8436F685-20C4-4AE2-9999-4CC9342060C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70498033-840D-42D9-8E16-067E2876B321}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D6795756-7117-43F2-85AE-395816E538D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7786DB9-E407-4B40-B54E-ACAE8DA74785}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A2BCB8CA-E35F-4F9D-8A2F-CB6880E2E835}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CEC4FA0A-43E9-4EB5-9C53-E5A061DB3F9D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8B0D0C28-2E88-42C5-A03F-E25CECBED01D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{926660EF-EABA-4E7C-A9D1-620F10D8DE16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7474B560-CD52-4B8F-ADC7-0BD93BADBFD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FAEDDD26-604C-497C-B921-910C57895D22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD6FA447-A677-4B70-91CE-689445BD80CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{824FABDF-65E9-476D-94B9-D710B8373112}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EBAE1EF0-A719-405A-8A38-0F7B3933A9DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7583D7E9-38F2-4DFC-B6EB-5F6B812C1F96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4829,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8046D5C1-F1C7-44B7-A530-9792D48B332A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B38FFA-DA93-4D59-AFD7-81CDA54D5DBF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5984,18 +5984,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DACF5331-7BDD-4794-BEEC-5FF47BEEE725}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{26CC5E69-5842-4A87-9FBE-E7FB9C66213E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A578A915-9831-486B-AB84-FEFEEF958115}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{690B0FCE-553E-4669-A8DD-1DFEAB4FC284}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CC76D0DC-3580-4733-8020-F18805BB7CD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BA6E894-4940-4A98-A4AB-D23A4E268CCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5EDF2DA-2785-4549-A1E3-DFBD62A2D64A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A860494A-7B69-4664-985F-EE6C5594EAC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B93A26BC-5B39-42C9-9291-34D8D5913B42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2DC4FEA1-E990-4FC9-80BE-C8790AD9523F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{990695B1-4748-4116-A78C-AF2F6BD2316D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B90DFB58-402B-4CA7-9E21-D469E9A42848}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F15EF809-E013-483C-86B4-8732E5438AD0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16116AA0-62B3-4AD1-A93B-EE253B5D5488}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{60F4FD26-85FB-45BE-8A7D-E604A701AB1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9ED4ED06-F8FC-4227-9B68-EB68665F9F89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FE013BC-F6B0-4689-A940-606585632922}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{91A955BA-58EC-4008-A326-C8484ADACB9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{51CE2CB7-E9FA-405D-9182-B153C2E3C3A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E53F114-5432-48A8-B69E-1797EAD6F780}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E94A2A69-3D55-432F-B603-AE2279E5D7BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CCE05593-C4F2-458A-8164-57E48D8342C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{654B42F5-C4C1-417E-BB40-1C3806812A5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C8B7E506-5215-4B4D-8D70-078E67905B49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6008,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D50E04B-EA74-4EE4-A542-7980680413F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A1946-5A0B-4745-AF38-7E4CD056D31B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7201,18 +7201,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2E9C4149-79B1-42C6-893D-475067304FF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC60E137-F69A-4CA1-96DF-3C68A3EF1D61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7A3FD578-F243-4D8F-A6E5-281AE8C99CC1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{158BE6D5-2DD9-4C04-A723-6FC71565D977}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9AAEDFDC-4F1A-4F76-AEEC-103E1BF64B0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{63A0EC9B-7271-4B94-9E9A-77497F4E8638}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3219E5D3-0EF7-43A6-82DA-819774336F5B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D63A8BA-EEEB-470B-81DE-A60B84D11C68}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69ED3BD2-ABA3-4D11-956A-AA2881949195}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C872B9A-89A9-4961-AA42-3D546B06DECB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F0B91A78-25CF-47F2-BF39-7C222F867F0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{69DC0920-62B3-4CDB-88CA-44D5D4E978ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD30313F-FF96-43F7-B5FC-2DEA82645A39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E58CC1AA-CD8E-42CD-B938-7A42C140F356}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A8724810-C1F1-4260-87A5-E8C8D165E131}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D166E23A-A0F6-476D-9AB3-81A70B35C069}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58D1AE09-15B3-434C-826E-7103F36A7907}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DB7F3E18-C238-4DDC-BE0C-48422FBBE969}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FB31C094-71A1-4076-9B8F-FE68EAC31198}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86137FC8-FDB5-437C-8C08-AE7178F8B8B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2A661FEE-BBB9-4E97-AAC7-7753A7A62BF2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7FBDD486-EE6F-46B3-98B1-939847B1D243}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DBC4509F-C52A-4127-B03B-CCD24C012B2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1B4253FF-ADD4-43D4-A089-B3B273FE70B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7225,7 +7225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB85E9-7C15-4E97-A47A-149E2542F394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA5714C-9272-4912-A0AA-47686A80F3CA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8418,18 +8418,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2EF1D871-A21D-4ADD-A333-079496C42653}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{087C7349-A2CB-4CCE-9A4F-A27C8455AC4D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2300AA54-580A-4EF6-B595-A39FCB117700}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F79DFCB9-A73D-46A3-B511-277A32DDC4A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{450EF6A5-3F25-48AD-87D0-EB4F4AE9CABA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D8073AE-3A29-4788-B271-F3B7D3F36032}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DECA1A67-306D-453C-B06A-2A1906A86295}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{770F6EF4-FD55-44C7-A413-271041951442}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F11645D-F295-4A59-91C0-FF8331D6CBFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{095B7AEB-A9BC-4C22-A919-5E8999CD0C30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B544D4C0-F640-4174-9421-F767A9EE3870}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E08AF6DC-5352-4B3C-820B-651ADAB8CC48}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BABFD8C6-753C-4758-B257-982551724AFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9705514E-29DB-4DBC-BF90-6AA6C85A41D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EF3CC9C4-09CD-4B67-97B5-77B2F87B9E8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{89047E14-CF43-4F8C-B653-DD8B1721782E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4E1E1FD2-C2E3-41E9-9BD2-67AA1C909250}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E57866F-CF9B-46D1-81B6-FB577A993139}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E43780F8-1ED2-4BE0-8444-6F70F7C42E83}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7BFFB5C-D314-467A-AFC8-DE36462EC8BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F1217869-642D-4F2D-A734-D089A43A48AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{193F1565-24A7-4D05-895B-211400C16DD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B6E61DDB-903A-45E4-B1FA-9881698AADF7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D051D574-9E2F-4105-90C4-1FF182BB5DDD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8442,7 +8442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC46BD8A-EE15-4D53-B385-4D7B688B23F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E39975-63CF-4322-89B2-94D150502BA5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9627,18 +9627,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B5EBF891-8E1C-4CAF-9CF5-EABF9DCCA5D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C05ECB7-6302-4AEB-8BFE-FE8E23311141}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{87DE5189-D066-4F96-A085-EEE9E3A9C8A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38D067AB-B66E-47B1-9A4B-0FD9BFA9BB16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F505774F-5074-4B01-AC35-5BCAFE7BB4A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{27087C94-3666-4BC8-913E-17792888FD92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B1677A6-461E-49CD-ACCC-308F78820924}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{55C4E5C1-7926-40C6-9B96-14621BD930E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF014798-C9A9-4B7B-811C-8004A8DF8B7B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2361CE51-3089-4006-88CE-98D1DEDBDAC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{681BED0B-9E87-42EA-8E55-67A9D0FBCDCB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{09250AFC-F518-403E-BE9D-E998C8AA5321}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF96260F-A54A-4406-A6CC-652A38B381B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{075255AC-811F-474F-9B25-111636773402}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26051FB2-58AC-4C8B-9123-0193DF05E4E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A323CE7-3381-4DA3-A818-30CA80176A88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{125925E6-48C6-4A15-9209-5940E90218E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B7C950F-2A0B-4CC6-A340-2FB71DFA8808}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B26A1A9C-D0BF-40CC-9B0F-28E1B909873D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56EA340A-B67B-4F1A-B60B-30749418B03C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9200DAE1-FCC3-4E3C-A73C-C6BC7C4E59ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B0148953-CE39-413B-9F82-9211B3626AD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{96BEDBD0-C483-4156-9A07-1036CA9B6018}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE7F4BF6-0C5F-4030-9AEF-9D37A546B024}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9651,7 +9651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE3B932-2E4C-4179-8BC5-1D677D44003E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005FC93-F790-4C1C-97D2-DB5C775599CC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10824,18 +10824,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0B60FC9-372B-4576-A6CB-F65DC757788D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3BF8C969-34FF-466B-AACB-8EBEE4B5152A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D712F3D9-F281-4581-8B82-883F6A2172A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{206FD7A5-B04B-4056-BB02-3421064C4729}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{55B1C222-751E-4767-BDB0-289FAAEA39C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{27ABE06D-24C2-4A3B-949F-F0F126595B30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{974EBC34-0FC6-4B31-ACDB-D2C9629DC425}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00454CF4-42FD-4BAA-A62B-8A9BDC6C52D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5EF9A7D7-5E36-476F-B475-0504C65281C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4A6831E8-D24C-416A-98BF-24988CCB202D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F1944C5-9C81-4055-84E4-027CAB4D3816}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8FD867F7-22F1-4569-BD20-37EB43C6823B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53D23120-5674-460A-82BF-49488769A8B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4D58012C-A387-4DB5-B512-BA78EF9A58A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CFCBEF32-80D7-4D71-8314-BB1DFD22915C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4CD84E88-634C-43D2-9156-65EF10EA8FBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{850DA212-FD07-4DCC-BB7A-8857E3583A1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{438D9ABA-DFC4-4953-A1B0-627FD6692DB3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{749926A5-6598-4DE1-8E16-29A722C4210B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1A802BD9-A810-4723-88C2-AF8529733ADA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{246BA630-8BED-4106-8D58-47F1DD1F6689}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28B4F269-004D-495E-9D9D-A38B7393EE4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{24CAF835-286E-43FB-94A9-7A9A4D9B3D96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5645C292-A4C1-4BB8-BEFC-4F2BB94B69B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10848,7 +10848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D42F34-6064-491E-BACC-B75F21EB38B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597F3B62-F094-4FD0-95E9-40DB5D36467D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12021,18 +12021,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C7B77E7E-3205-494E-AE25-D1D27E2CEE01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F41AC58A-3A09-499B-A6D6-293F639031C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F1FAD63B-A108-408E-9924-EF228531B74B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CEBA34F2-9D29-40D4-9C10-F20B8676A7C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4EF5DB3-A015-4F0E-8B2F-8615A0D6AFFA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D483E2A2-8A89-4B76-8712-983945F56BA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{479980E1-BCE6-4115-9963-38B41464BAF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85E1A70B-8E6A-473D-AAB2-BAD69E5906DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23A4A5B5-FDF0-400B-8995-9AB6C3B78078}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AADBAC23-3EBF-4532-9EEA-2257AC6F7CF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5FA073E7-E134-49AB-8DA4-6DC77A4029B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DFE0955E-E9DE-47B4-B9E5-9C246B88DD31}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{79D05C76-F8F9-4C58-B9E0-971D2D3537AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ACC72F63-D9AF-40CD-8BEF-49FC5C389D91}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{221AAC27-9424-4B25-BB07-29B6FE4E9988}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{302286DB-8B81-49C8-BF14-2B6CE8962750}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{554032D7-3027-4D80-B8C7-AB4A27966D7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9FCD21DB-A66D-4401-AF10-B1953E7EEB3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{045E1A0F-28BB-4F4A-95A8-44077AFF0D9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{20FC39C5-124B-486D-8CBB-F561EC8EDB8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA64DC02-2725-49F0-B380-309486F6C144}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E7B14D7-AF97-4BE8-84AA-2A4280437B77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2ABA4E9-F59A-4360-BA3C-2D44117F21AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C6A4053-81F3-4156-955F-0C7994860B8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12045,7 +12045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2376853A-99DC-42DB-A8E8-2B24F40EA7D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48256504-4763-40DB-B611-88793963A9C6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13218,18 +13218,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{76509FDA-EFDF-4574-9F0F-4952C27552D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{873F5D3D-17CA-4B47-A6B8-AB996F450ADD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{51FB7C8C-2DF9-483E-AE19-F7DB623BED50}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{20B1034D-6E71-49F3-B045-E8F161B56930}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EFA55BC3-943B-4BAB-8F40-33BD6D47C583}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FED58B37-F989-4530-8931-58E7967E2BB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BCDC0C03-4E1B-4EC2-8543-C5098F8787EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A657615A-A763-4716-9738-B620CD21DB12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F9C36E1-924B-43A6-89E8-7FECF033A34A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{308AD88B-5101-4CE3-9AB9-BA87CCD04105}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5FD8CC3B-5BBC-469D-9C03-3F27CC9E3FD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{72E88164-148A-4A61-89AA-BCB7D60CB407}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E554856C-47F7-49E4-A76D-4A8302574018}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4274579-B4E0-4E1C-9640-26565B2E37AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3138A915-4892-424A-A71D-E47D9F28C0E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{55FA1C0C-1340-46D4-AFA6-39B0C306C938}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED241C03-62F3-4121-902E-146A689589BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CFCED242-272C-4B6C-990A-D6F8135DDDE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F489011E-2D2A-4EB0-97A2-B85C9EB1BE1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51887B80-5E19-427D-BFB7-AA1006BEB2E3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{29BEFB80-A7EC-4887-A79C-B46392BA2A00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{390A269C-87A6-4E99-8FAE-8D12B9F46E34}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7925733-E58D-4E45-9359-8C1BBCE688C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{35D069C9-70E9-4CF6-943F-55B4D20FF40C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13242,7 +13242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAE78D-9E8A-4C32-B71B-FB6F94C86214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D88AA-4BF7-4F95-8EA6-EE6E3D0E1516}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14415,18 +14415,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0833C944-C970-4E81-808D-CDB5914CE280}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{84955A1E-050C-4D51-956A-86C727A1FF98}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E2D90583-DF20-4BA8-B866-7DDACD16B051}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ABD40B46-F1ED-4181-861C-A6C01E005ABF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{434E01A2-A636-4C7F-880B-830223CC29E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B89217D-6753-4A59-9960-86A1A63F04A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{45FFA174-292B-4A0A-9282-CFF43087FB71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B3799516-62CB-4FCF-B167-38F241B4E67C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9825F321-2CC2-4601-9127-2AEACF7F519F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F700049-8B8B-404D-A698-13320F967DBF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1E2DED76-723D-4C28-9DA8-17C7158A3BC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{920B047F-7BBD-4F33-B3AB-6590D2FDF4A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D8452897-A063-4AA9-94FA-9DCA5DC69386}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC83D354-18FD-48E1-B432-386DA64FDFEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6A18872E-FE9C-4ACD-8EED-57D256877D6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2585693-32B1-4763-8480-4DED32AF96D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{94FDCC51-4286-41EB-8F05-0E98405A8FA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A8A8DF54-7D75-48CE-856A-F0D8930A4698}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{801CA202-BA6A-44A6-91C2-A2AF75629B9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29DA4C8D-35D2-4B3C-B92E-E227834E7CCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F773B8B3-BFE7-4E52-9FBB-B48379D24595}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7A71CFD-D33C-40CF-A853-ED6667B557C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4843EF92-4A1E-404B-9383-20D379FF5833}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9244AA17-0CC0-4621-A68D-B8A026E6B884}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14439,7 +14439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76615A3F-C45B-4B8E-8EA0-0BCA447D20F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18119A80-1832-4794-BB19-6DD971DF5649}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15604,18 +15604,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA1A4DDE-CA30-476F-9FD0-241580AFC0AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1E70E0F7-7766-46ED-B1E2-BA2BAF221729}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CBF6E8C5-19F2-41E9-BD94-D749D7510801}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23DD4E40-9B81-4699-A29F-13F31D6F45F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB4B1775-BC81-4C53-A9EE-F688370BDBA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{10E40663-EC34-430A-B54F-7829707EC84B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E5F822F8-F22C-4FF7-9C2A-558B167CBC65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3513A0FC-D54A-41CD-AE9D-C2535DF33162}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{72E5B6F3-70A1-45EB-8EA2-B6CBEA91DD83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2DC9DAA5-A30C-4034-B235-B38F8E141628}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E1F5AAC4-91A3-49C1-A1DA-0ED4A717C144}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8D592773-EC7B-4657-890D-4781AE6A5CC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{643EEE8B-794A-4E84-9E2E-C456084E7870}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C3B2D6DC-D53E-47ED-A94A-9C0BF04F9BB5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3D3680B4-430B-4B38-B166-08C35F2A44DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F3FC06C7-3FC9-4357-BB7B-445728719C8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C09EC35-F767-4551-B47A-5D64C1B9E2E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3FE29CA7-C841-4724-9795-456D1FBAC4C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D28C6A2F-8CB6-49F1-9454-E5646CF6EC6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{57186A2E-DF3B-463F-B09A-78F9400E37FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2BA45919-49C7-4BDA-8E3E-A77C37CFE878}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10A475A8-A887-4A23-87FD-A880608CE62F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80A6A176-A3F3-4D9B-B13F-4D0D9478E858}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A77388A-6D24-48B0-BA43-D74F42950C63}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
